--- a/boyiERPServer/src/main/resources/excelDemo/financeTaxSupDemo.xlsx
+++ b/boyiERPServer/src/main/resources/excelDemo/financeTaxSupDemo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>编号</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>开票金额</t>
+  </si>
+  <si>
+    <t>不含税开票金额</t>
   </si>
   <si>
     <t>税点</t>
@@ -1019,10 +1022,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1033,13 +1036,14 @@
     <col min="4" max="4" width="26.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="17.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="14.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="14.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="12.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="14.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="14.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" spans="1:11">
+    <row r="1" ht="40" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,6 +1076,9 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
